--- a/validation/Catalog_check/data/target_list_filtered.xlsx
+++ b/validation/Catalog_check/data/target_list_filtered.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WBS\Desktop\EXOPLANET WORK\006 NATSUME\validation\Catalog_check_new\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WBS\Desktop\EXOPLANET WORK\006 NATSUME\validation\Catalog_check\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287A3AA2-37EB-4F03-9216-32D7A1F5DB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518B1696-2DAA-4BC8-A0E6-8BCD5378569A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="104">
   <si>
     <t>KOI_inner</t>
   </si>
@@ -325,6 +325,27 @@
   </si>
   <si>
     <t>ew_converted, Test3</t>
+  </si>
+  <si>
+    <t>peri_convention</t>
+  </si>
+  <si>
+    <t>PyDynamicaLC</t>
+  </si>
+  <si>
+    <t>RadVel, juliet</t>
+  </si>
+  <si>
+    <t>peri_offset</t>
+  </si>
+  <si>
+    <t>PyTTV, REBOUND</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>REBOUND</t>
   </si>
 </sst>
 </file>
@@ -366,11 +387,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,1653 +671,1741 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="108" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.23046875" style="1"/>
-    <col min="3" max="12" width="10.3828125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.3828125" style="2" customWidth="1"/>
-    <col min="14" max="39" width="10.3828125" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.23046875" style="1"/>
+    <col min="3" max="12" width="10.3828125" customWidth="1"/>
+    <col min="13" max="13" width="10.3828125" style="1" customWidth="1"/>
+    <col min="14" max="41" width="10.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" t="s">
         <v>21</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH1" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" t="s">
         <v>70</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" t="s">
         <v>24</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" t="s">
         <v>55</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" t="s">
         <v>56</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A2">
         <v>137.01</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>137.02000000000001</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>2454960.7678379999</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>5.0199999999999995E-4</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>2455704.0999799999</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>2.5999999999999998E-4</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>7.6415621900000001</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>5.7000000000000005E-7</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2">
         <v>14.8589225</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>9.2E-6</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2">
         <v>2</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2">
         <f>K2/I2*(N2-O2)/N2 - 1</f>
         <v>-2.7756227683072732E-2</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2">
         <f>1/ABS(N2/K2-(N2-O2)/I2)</f>
         <v>267.66826295098014</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2">
         <v>5.4431887273256201E-2</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2">
         <v>5.9780685444616698E-3</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2">
         <v>5.16001705943007E-2</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2">
         <v>4.4048926117086001E-3</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2">
         <v>3.3854098717880498E-4</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2">
         <v>1.37069864115155E-4</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2">
         <v>5.2156687011350696E-4</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2">
         <v>4.4520559724775099E-4</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2">
         <v>30.731556062626598</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AC2">
         <v>34.577790202100303</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2">
         <v>98.378672506215494</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AE2">
         <v>7.4933850537993196</v>
       </c>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="1">
+      <c r="AF2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2">
         <v>0.97199999999999998</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AK2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AL2" t="s">
         <v>63</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AM2" t="s">
         <v>64</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AN2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>248.01</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>248.02</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>2454967.2680850001</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>1.562E-3</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>2454970.1166119999</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>3.0990000000000002E-3</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>7.2038525800000004</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>1.73E-6</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>10.912717519999999</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>3.3900000000000002E-6</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3">
         <v>3</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3">
         <f t="shared" ref="P3:P12" si="0">K3/I3*(N3-O3)/N3 - 1</f>
         <v>9.8964314638061435E-3</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3">
         <f t="shared" ref="Q3:Q12" si="1">1/ABS(N3/K3-(N3-O3)/I3)</f>
         <v>367.56405780914451</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" t="s">
         <v>51</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3">
         <v>1.7242008222973601E-2</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3">
         <v>2.5170814924049098E-3</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3">
         <v>1.5574441734255399E-2</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3">
         <v>2.5485450110599699E-3</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X3">
         <v>7.1175838597096905E-2</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Y3">
         <v>3.8518152159670097E-2</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="Z3">
         <v>5.7982756057296803E-2</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AA3">
         <v>4.4097086281979898E-2</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3">
         <v>65.955776730632095</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AC3">
         <v>29.394253858567499</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AD3">
         <v>69.189514154024195</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AE3">
         <v>41.137720438357</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AF3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
         <v>0.54100000000000004</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AK3">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AL3" t="s">
         <v>76</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AM3" t="s">
         <v>77</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AN3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A4">
         <v>277.02</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>277.01</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>2454960.8628159999</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>2.7837000000000001E-2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>2454955.9776699999</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>1.3792E-2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>13.84911836</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>3.0559999999999999E-5</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>16.23189245</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>1.5970000000000001E-5</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4">
         <v>7</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4">
         <v>1</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4">
         <f t="shared" si="0"/>
         <v>4.6163452262220073E-3</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4">
         <f t="shared" si="1"/>
         <v>502.31117148686332</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4">
         <v>1.2980778037443999E-2</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4">
         <v>6.3405282793679797E-4</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4">
         <v>2.4256812292526998E-2</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4">
         <v>1.0626614644634999E-3</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4">
         <v>5.6356011214421402E-2</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4">
         <v>2.71665494787127E-2</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Z4">
         <v>6.5802735505448406E-2</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AA4">
         <v>2.6091161909584298E-2</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4">
         <v>-27.474431626277099</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AC4">
         <v>32.833719383440297</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AD4">
         <v>-36.3474582088852</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AE4">
         <v>24.769679038597801</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AF4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
         <v>1.034</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AK4">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AL4" t="s">
         <v>67</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AM4" t="s">
         <v>68</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AN4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A5">
         <v>775.02</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>775.01</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>2454969.9886639998</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>2.1389999999999998E-3</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>2454972.9592220001</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>3.392E-3</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>7.8774264499999997</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>2.48E-6</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>16.38482024</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>3.8999999999999999E-6</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5">
         <v>2</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5">
         <v>1</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5">
         <f t="shared" si="0"/>
         <v>3.9985605958910542E-2</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5">
         <f t="shared" si="1"/>
         <v>204.88398071092254</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" t="s">
         <v>37</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5">
         <v>1.97276261967235E-2</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5">
         <v>4.0587939065029202E-3</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5">
         <v>9.4075920778633595E-2</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5">
         <v>1.9507381566137998E-2</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5">
         <v>6.9290764175321304E-2</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5">
         <v>7.0345158912926099E-3</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5">
         <v>4.7676514134319802E-2</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AA5">
         <v>1.2537384986704E-2</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5">
         <v>-107.72892064142199</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC5">
         <v>3.31329697787766</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD5">
         <v>-115.866356794094</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AE5">
         <v>12.118971254184901</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AF5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>0.63300000000000001</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AK5">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="AJ5" s="1" t="s">
+      <c r="AL5" t="s">
         <v>76</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AM5" t="s">
         <v>77</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AN5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A6">
         <v>834.01</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>834.05</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>2454980.7210960002</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>9.4799999999999995E-4</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>2455011.4899300002</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>1.5041000000000001E-2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>23.653675669999998</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>1.06E-6</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <v>50.447271950000001</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>1.573E-5</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6">
         <v>2</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6">
         <v>1</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6">
         <f t="shared" si="0"/>
         <v>6.6372783955568782E-2</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6">
         <f t="shared" si="1"/>
         <v>380.0298024546517</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" t="s">
         <v>37</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6">
         <v>0.21709827871992299</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6">
         <v>3.46098705205675E-2</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6">
         <v>3.8385492759174897E-2</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6">
         <v>5.9780685444616698E-3</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6">
         <v>5.4155793780536497E-2</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6">
         <v>9.0209357382330699E-2</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6">
         <v>8.3520356800004095E-2</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6">
         <v>0.11350240424456801</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6">
         <v>122.252104554393</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AC6">
         <v>89.035727041518001</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AD6">
         <v>130.192046036969</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AE6">
         <v>74.780772168852096</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AF6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>1.2290000000000001</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AK6">
         <v>6.2E-2</v>
       </c>
-      <c r="AJ6" s="1" t="s">
+      <c r="AL6" t="s">
         <v>76</v>
       </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AM6" t="s">
         <v>77</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AN6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A7">
         <v>886.01</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>886.02</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>2454971.1594099998</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>5.8760000000000001E-3</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>2454976.4613120002</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>1.3605000000000001E-2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>8.0108076500000003</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>6.63E-6</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7">
         <v>12.07130385</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>1.5469999999999999E-5</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7">
         <v>3</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7">
         <v>1</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7">
         <f t="shared" si="0"/>
         <v>4.5848373353465366E-3</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7">
         <f t="shared" si="1"/>
         <v>877.625018226713</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" t="s">
         <v>37</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" t="s">
         <v>51</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7">
         <v>3.08342482819602E-3</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7">
         <v>1.0697596342720799E-3</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7">
         <v>2.2024463058543001E-3</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7">
         <v>7.8658796637653505E-4</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7">
         <v>0.01</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7">
         <v>1.3199999999999899E-2</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7">
         <v>3.1241798923877601E-2</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7">
         <v>2.07441464022626E-2</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7">
         <v>0</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7">
         <v>91.6732472209317</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AD7">
         <v>-48.503531644784402</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7">
         <v>36.6940695139401</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AF7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
         <v>0.48399999999999999</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AK7">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AJ7" s="1" t="s">
+      <c r="AL7" t="s">
         <v>76</v>
       </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AM7" t="s">
         <v>77</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AN7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>250.01</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>250.02</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>2454966.5479330001</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>1.4809999999999999E-3</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>2454965.6368249999</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>1.887E-3</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>12.283015300000001</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>1.6700000000000001E-6</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8">
         <v>17.251186010000001</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>2.1100000000000001E-6</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8">
         <v>7</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8">
         <v>2</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8">
         <f t="shared" ref="P8:P10" si="2">K8/I8*(N8-O8)/N8 - 1</f>
         <v>3.1963178803962045E-3</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8">
         <f t="shared" ref="Q8:Q10" si="3">1/ABS(N8/K8-(N8-O8)/I8)</f>
         <v>771.02942714199673</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" t="s">
         <v>37</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" t="s">
         <v>51</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8">
         <v>1.3795620243572801E-2</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8">
         <v>1.88346915372928E-3</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8">
         <v>2.08817080609911E-2</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8">
         <v>2.41451042158941E-3</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8">
         <v>2.74590604354919E-2</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y8">
         <v>5.3067521175512999E-2</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8">
         <v>1.6401219466856701E-2</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA8">
         <v>4.4753932767314E-2</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8">
         <v>-169.50852298766799</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC8">
         <v>114.62647442610999</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AD8">
         <v>142.43140797117201</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AE8">
         <v>158.134464654591</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AF8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <v>0.54400000000000004</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AK8">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AL8" t="s">
         <v>85</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AM8" t="s">
         <v>86</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AN8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A9">
         <v>314.01</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>314.02</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>2454955.7286669998</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>7.8399999999999997E-4</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>2454957.8285710001</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>2.7320000000000001E-3</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>13.7810915</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>8.8999999999999995E-7</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9">
         <v>23.088988749999999</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>3.1599999999999998E-6</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9">
         <v>5</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9">
         <v>2</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9">
         <f t="shared" si="2"/>
         <v>5.2464458276035852E-3</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9">
         <f t="shared" si="3"/>
         <v>880.17639021524701</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" t="s">
         <v>37</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9">
         <v>1.6361029700631899E-2</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9">
         <v>3.7756222386073702E-3</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9">
         <v>3.6812316826421798E-3</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9">
         <v>9.4390555965184297E-4</v>
       </c>
-      <c r="X9" s="1">
+      <c r="X9">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Y9">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z9">
         <v>2.7E-2</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AA9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9">
         <v>88.81</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AC9">
         <v>0.15</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AD9">
         <v>88.951999999999998</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AE9">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AF9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
         <v>0.55100000000000005</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AK9">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="AJ9" s="1" t="s">
+      <c r="AL9" t="s">
         <v>87</v>
       </c>
-      <c r="AK9" s="1" t="s">
+      <c r="AM9" t="s">
         <v>88</v>
       </c>
-      <c r="AL9" s="1" t="s">
+      <c r="AN9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>1576.01</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>1576.02</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>2454965.629828</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>1.292E-3</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>2454965.6298540002</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>2.2070000000000002E-3</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>10.415739889999999</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>1.4300000000000001E-6</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10">
         <v>13.084280120000001</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>2.5399999999999998E-6</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10">
         <v>5</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10">
         <v>1</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10">
         <f t="shared" si="2"/>
         <v>4.9621252590630327E-3</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10">
         <f t="shared" si="3"/>
         <v>527.36597473439053</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" t="s">
         <v>37</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" t="s">
         <v>51</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10">
         <v>2.636856815221E-2</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10">
         <v>3.7851242212411998E-3</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10">
         <v>1.3726494893087599E-2</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10">
         <v>2.4550983606544401E-3</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X10">
         <v>4.1484937025383001E-2</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Y10">
         <v>5.6824367271997502E-2</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Z10">
         <v>2.92745623366088E-2</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AA10">
         <v>5.1721360995213503E-2</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10">
         <v>-74.623748751173807</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AC10">
         <v>54.881005998385803</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AD10">
         <v>-82.146686698021696</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AE10">
         <v>67.371035239101502</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AF10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
         <v>0.90700000000000003</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AK10">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="AJ10" s="1" t="s">
+      <c r="AL10" t="s">
         <v>85</v>
       </c>
-      <c r="AK10" s="1" t="s">
+      <c r="AM10" t="s">
         <v>86</v>
       </c>
-      <c r="AL10" s="1" t="s">
+      <c r="AN10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="C11" s="1" t="s">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>2458582.5548</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>8.8038120000000006</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11">
         <v>34.546190000000003</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11">
         <v>4</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11">
         <v>3</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11">
         <f t="shared" si="0"/>
         <v>-1.8999099480997539E-2</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11">
         <f t="shared" si="1"/>
         <v>454.57667657554327</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" t="s">
         <v>50</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" t="s">
         <v>52</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11">
         <v>0.28699999999999998</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11">
         <v>0.39200000000000002</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11">
         <v>2.7E-2</v>
       </c>
-      <c r="X11" s="1">
+      <c r="X11">
         <v>0.20799999999999999</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Y11">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="Z11">
         <v>0.18090000000000001</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AA11">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AB11">
         <v>60.6</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AC11">
         <v>6</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AD11">
         <v>26.1</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AE11">
         <v>9.4</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AF11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG11">
+        <v>90</v>
+      </c>
+      <c r="AH11">
         <v>20.8</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AI11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AJ11">
         <v>0.95399999999999996</v>
       </c>
-      <c r="AI11" s="1">
+      <c r="AK11">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="AJ11" s="1" t="s">
+      <c r="AL11" t="s">
         <v>65</v>
       </c>
-      <c r="AK11" s="1" t="s">
+      <c r="AM11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="C12" s="1" t="s">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>2455679.8193999999</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>2455703.05975</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>1.1E-4</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>10.423674</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12">
         <v>22.342971899999998</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <v>5.2000000000000002E-6</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12">
         <v>2</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12">
         <v>1</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12">
         <f t="shared" si="0"/>
         <v>7.1741686280672123E-2</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12">
         <f t="shared" si="1"/>
         <v>155.71819578221584</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" t="s">
         <v>50</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="S12" t="s">
         <v>52</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12">
         <v>2.9575707535757698E-2</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12">
         <v>7.5512444772147403E-3</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12">
         <v>0.16392493219286999</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W12">
         <v>2.23390982450936E-2</v>
       </c>
-      <c r="X12" s="1">
+      <c r="X12">
         <v>1.4991330828181999E-2</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Y12">
         <v>8.1052364865659005E-3</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="Z12">
         <v>2.3409399821439199E-2</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AA12">
         <v>1.49870990750755E-2</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AB12">
         <v>17.4680232512777</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AC12">
         <v>34.421786707579102</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AD12">
         <v>160.0168934781</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AE12">
         <v>49.703247242655699</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AF12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>1.25</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AK12">
         <v>0</v>
       </c>
-      <c r="AJ12" s="1" t="s">
+      <c r="AL12" t="s">
         <v>71</v>
       </c>
-      <c r="AK12" s="1" t="s">
+      <c r="AM12" t="s">
         <v>72</v>
       </c>
-      <c r="AL12" s="1" t="s">
+      <c r="AN12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="C13" s="1" t="s">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>2459712.9225975</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>3.3482370000000001</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>3.4999999999999997E-5</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13">
         <v>5.5827960000000001</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13">
         <v>4.1999999999999998E-5</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13">
         <v>5</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13">
         <v>2</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13">
         <f t="shared" ref="P13:P15" si="4">K13/I13*(N13-O13)/N13 - 1</f>
         <v>4.3025628114135017E-4</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13">
         <f t="shared" ref="Q13:Q15" si="5">1/ABS(N13/K13-(N13-O13)/I13)</f>
         <v>2595.1026142789683</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" t="s">
         <v>73</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" t="s">
         <v>74</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13">
         <v>2.8946437162656501E-2</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13">
         <v>1.10122315292715E-3</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13">
         <v>2.8033995121659699E-2</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W13">
         <v>1.2585407462024499E-3</v>
       </c>
-      <c r="X13" s="1">
+      <c r="X13">
         <v>7.9014399999999999E-2</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Y13">
         <v>2.9692968810814402E-3</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="Z13">
         <v>3.3073089999999998E-4</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AA13">
         <v>1.99564906734626E-4</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AB13">
         <v>-21.014096323205401</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AC13">
         <v>1.5976223096217099</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AD13">
         <v>28.580286791492899</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AE13">
         <v>12.655358163243701</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AF13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <v>0.33</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AK13">
         <v>0.02</v>
       </c>
-      <c r="AJ13" s="1" t="s">
+      <c r="AL13" t="s">
         <v>73</v>
       </c>
-      <c r="AK13" s="1" t="s">
+      <c r="AM13" t="s">
         <v>74</v>
       </c>
-      <c r="AL13" s="1" t="s">
+      <c r="AN13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="C14" s="1" t="s">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>2459712.9225975</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>3.3464932300000001</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>4.7379999999999997E-5</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14">
         <v>6.6981780000000004</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14">
         <v>1.95E-4</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14">
         <v>2</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14">
         <v>1</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14">
         <f t="shared" si="4"/>
         <v>7.7566868408096568E-4</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14">
         <f t="shared" si="5"/>
         <v>4317.6797887206985</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="R14" t="s">
         <v>73</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" t="s">
         <v>74</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14">
         <v>2.52714981837453E-2</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14">
         <v>2.1080557498891102E-3</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14">
         <v>5.69804322843162E-2</v>
       </c>
-      <c r="W14" s="1">
+      <c r="W14">
         <v>3.3980600147466302E-3</v>
       </c>
-      <c r="X14" s="1">
+      <c r="X14">
         <v>0.17772352</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Y14">
         <v>9.3038689242701603E-3</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="Z14">
         <v>9.9242099999999993E-3</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AA14">
         <v>3.9999548645453398E-3</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AB14">
         <v>168.839330476957</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AC14">
         <v>1.2609970353745199</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AD14">
         <v>-83.602645872477197</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AE14">
         <v>1.88610828162814</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AF14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
         <v>0.33</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AK14">
         <v>0.02</v>
       </c>
-      <c r="AJ14" s="1" t="s">
+      <c r="AL14" t="s">
         <v>73</v>
       </c>
-      <c r="AK14" s="1" t="s">
+      <c r="AM14" t="s">
         <v>74</v>
       </c>
-      <c r="AL14" s="1" t="s">
+      <c r="AN14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="C15" s="1" t="s">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>2459712.9225975</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>3.3480035899999998</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <v>5.5630000000000001E-5</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15">
         <v>8.3740679999999994</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15">
         <v>5.7399999999999997E-4</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15">
         <v>5</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15">
         <v>3</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15">
         <f t="shared" si="4"/>
         <v>4.84948703415089E-4</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15">
         <f t="shared" si="5"/>
         <v>3453.5891903726701</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" t="s">
         <v>73</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" t="s">
         <v>74</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15">
         <v>6.9597303264995802E-2</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15">
         <v>2.7687896416453998E-3</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15">
         <v>3.6529145158526302E-2</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W15">
         <v>2.3283003804745401E-3</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X15">
         <v>0.32352999999999998</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Y15">
         <v>1.3377115533626799E-2</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="Z15">
         <v>0.21152349000000001</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AA15">
         <v>1.17305668558684E-2</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AB15">
         <v>-118.682812934032</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AC15">
         <v>1.34665205826546</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AD15">
         <v>-26.748905147746399</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AE15">
         <v>2.4989199236937498</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AF15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
         <v>0.33</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AK15">
         <v>0.02</v>
       </c>
-      <c r="AJ15" s="1" t="s">
+      <c r="AL15" t="s">
         <v>73</v>
       </c>
-      <c r="AK15" s="1" t="s">
+      <c r="AM15" t="s">
         <v>74</v>
       </c>
-      <c r="AL15" s="1" t="s">
+      <c r="AN15" t="s">
         <v>95</v>
       </c>
     </row>
